--- a/products.xlsx
+++ b/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TILLIDIE\Desktop\kme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC247AA-D726-4607-8625-F55670772F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EDB4E-AA11-4DEB-8840-A392E395502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,33 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+  <si>
+    <t>code</t>
+  </si>
   <si>
     <t>product name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prohibited ingredients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>product URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+  </si>
+  <si>
+    <t>B076Y6WRKH</t>
+  </si>
+  <si>
+    <t>NOW 보충제, MK-7 비타민 K-2 100 mcg, 심혈관 지원*, 뼈 건강 지원*, 채소 캡슐 120개</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NOW-Supplements-Cardiovascular-Supports-Capsules/dp/B076Y6WRKH/ref=sr_1_9?crid=10OWY9U45M63&amp;keywords=vitamin+k2&amp;qid=1706949204&amp;sprefix=vitamin+k2%2Caps%2C418&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>[ Dioxide ] =&gt; ox
+[ Menaquinone-7 ] =&gt; Menaquinone
+[ MK-7 ] =&gt; MK-7
+[ balance ] =&gt; ALA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -124,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,29 +442,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="55" width="9" style="2" customWidth="1"/>
-    <col min="56" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="208" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="56" width="9" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -470,18 +473,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D2" s="3" t="s">
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" s="3" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -506,16 +508,16 @@
     <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="55" width="9" style="2" customWidth="1"/>
-    <col min="56" max="16384" width="9" style="2"/>
+    <col min="5" max="56" width="9" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,88 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TILLIDIE\Desktop\kme\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59EDB4E-AA11-4DEB-8840-A392E395502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="iherb" sheetId="2" r:id="rId2"/>
+    <sheet name="amazon" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iherb" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>product name</t>
-  </si>
-  <si>
-    <t>prohibited ingredients</t>
-  </si>
-  <si>
-    <t>product URL</t>
-  </si>
-  <si>
-    <t>B076Y6WRKH</t>
-  </si>
-  <si>
-    <t>NOW 보충제, MK-7 비타민 K-2 100 mcg, 심혈관 지원*, 뼈 건강 지원*, 채소 캡슐 120개</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NOW-Supplements-Cardiovascular-Supports-Capsules/dp/B076Y6WRKH/ref=sr_1_9?crid=10OWY9U45M63&amp;keywords=vitamin+k2&amp;qid=1706949204&amp;sprefix=vitamin+k2%2Caps%2C418&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>[ Dioxide ] =&gt; ox
-[ Menaquinone-7 ] =&gt; Menaquinone
-[ MK-7 ] =&gt; MK-7
-[ balance ] =&gt; ALA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,44 +66,104 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -441,60 +463,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="208" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="56" width="9" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="9" style="2"/>
+    <col width="13.375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="81.375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="89.125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="208" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="9" customWidth="1" style="2" min="5" max="57"/>
+    <col width="9" customWidth="1" style="2" min="58" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
+    <row r="1" ht="14.25" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>product name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>suspicious ingredients</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>product URL</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+    <row r="2" ht="66" customHeight="1" s="7">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>B076Y6WRKH</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>NOW 보충제, MK-7 비타민 K-2 100 mcg, 심혈관 지원*, 뼈 건강 지원*, 채소 캡슐 120개</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>[ Dioxide ] =&gt; ox
+[ Menaquinone-7 ] =&gt; Menaquinone
+[ MK-7 ] =&gt; MK-7
+[ balance ] =&gt; ALA</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/NOW-Supplements-Cardiovascular-Supports-Capsules/dp/B076Y6WRKH/ref=sr_1_9?crid=10OWY9U45M63&amp;keywords=vitamin+k2&amp;qid=1706949204&amp;sprefix=vitamin+k2%2Caps%2C418&amp;sr=8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" s="7">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>B07S417XN6</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Bronson Vitamin K2 as MK-7 Menaquinone 100 mcg Non-GMO, 120 Capsules</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>[ MK-7 ] =&gt; MK-7
+[ dioxide ] =&gt; ox
+[ Menaquinone ] =&gt; Menaquinone</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Vitamin-MK-7-Menaquinone-100-Serving/dp/B07S417XN6/ref=sr_1_2_sspa?crid=1SZEYWGXXGOLI&amp;keywords=vitamin+k2&amp;qid=1707028391&amp;sprefix=vitamin+%2Caps%2C466&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -502,32 +574,39 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="56" width="9" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="9" style="2"/>
+    <col width="5.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="21.625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="12.375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="9" customWidth="1" style="2" min="5" max="57"/>
+    <col width="9" customWidth="1" style="2" min="58" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
+    <row r="1" customFormat="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>product name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>prohibited ingredients</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>product URL</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -70,7 +70,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -87,10 +87,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -468,21 +464,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="13.375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="81.375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
     <col width="89.125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
     <col width="208" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9" customWidth="1" style="2" min="5" max="57"/>
-    <col width="9" customWidth="1" style="2" min="58" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="5" max="58"/>
+    <col width="9" customWidth="1" style="2" min="59" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customFormat="1" customHeight="1" s="5">
@@ -504,55 +500,6 @@
       <c r="D1" s="5" t="inlineStr">
         <is>
           <t>product URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="66" customHeight="1" s="7">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>B076Y6WRKH</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>NOW 보충제, MK-7 비타민 K-2 100 mcg, 심혈관 지원*, 뼈 건강 지원*, 채소 캡슐 120개</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>[ Dioxide ] =&gt; ox
-[ Menaquinone-7 ] =&gt; Menaquinone
-[ MK-7 ] =&gt; MK-7
-[ balance ] =&gt; ALA</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/NOW-Supplements-Cardiovascular-Supports-Capsules/dp/B076Y6WRKH/ref=sr_1_9?crid=10OWY9U45M63&amp;keywords=vitamin+k2&amp;qid=1706949204&amp;sprefix=vitamin+k2%2Caps%2C418&amp;sr=8-9</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" s="7">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>B07S417XN6</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Bronson Vitamin K2 as MK-7 Menaquinone 100 mcg Non-GMO, 120 Capsules</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>[ MK-7 ] =&gt; MK-7
-[ dioxide ] =&gt; ox
-[ Menaquinone ] =&gt; Menaquinone</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Vitamin-MK-7-Menaquinone-100-Serving/dp/B07S417XN6/ref=sr_1_2_sspa?crid=1SZEYWGXXGOLI&amp;keywords=vitamin+k2&amp;qid=1707028391&amp;sprefix=vitamin+%2Caps%2C466&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
         </is>
       </c>
     </row>
@@ -567,21 +514,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="5.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="13.875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
     <col width="21.625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
     <col width="12.375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9" customWidth="1" style="2" min="5" max="57"/>
-    <col width="9" customWidth="1" style="2" min="58" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="5" max="58"/>
+    <col width="9" customWidth="1" style="2" min="59" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="5">
@@ -603,6 +550,29 @@
       <c r="D1" s="5" t="inlineStr">
         <is>
           <t>product URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10056</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NOW Foods, 비타민D-3 &amp; K-2, 베지 캡슐 120정</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[ dioxide ] =&gt; ox
+[ MK-4 ] =&gt; MK-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://kr.iherb.com/pr/now-foods-vitamin-d-3-k-2-120-veg-capsules/10056</t>
         </is>
       </c>
     </row>
